--- a/WSC/Test Report/Procurement & Inventory/Quality Inspection.xlsx
+++ b/WSC/Test Report/Procurement & Inventory/Quality Inspection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -153,6 +153,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test URL</t>
     </r>
     <r>
@@ -172,6 +180,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -211,6 +227,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -1353,7 +1377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,12 +1503,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1544,7 +1568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1584,18 +1608,14 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1606,7 +1626,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1661,6 +1683,39 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1787,7 +1842,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1799,82 +1854,82 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1912,7 +1967,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1922,20 +1977,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1943,15 +1999,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1965,9 +2026,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1987,15 +2064,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2008,14 +2088,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2030,7 +2109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2068,13 +2147,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2631,44 +2743,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" ht="21" spans="1:8">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" ht="150" spans="1:4">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="89" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2683,684 +2795,684 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.4285714285714" style="27" customWidth="1"/>
-    <col min="2" max="2" width="92.5714285714286" style="27" customWidth="1"/>
-    <col min="3" max="3" width="70.7142857142857" style="27" customWidth="1"/>
-    <col min="4" max="4" width="49.5714285714286" style="27" customWidth="1"/>
-    <col min="5" max="5" width="38.1428571428571" style="27" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="27"/>
+    <col min="1" max="1" width="23.4285714285714" style="35" customWidth="1"/>
+    <col min="2" max="2" width="92.5714285714286" style="35" customWidth="1"/>
+    <col min="3" max="3" width="70.7142857142857" style="35" customWidth="1"/>
+    <col min="4" max="4" width="49.5714285714286" style="35" customWidth="1"/>
+    <col min="5" max="5" width="38.1428571428571" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="35" customFormat="1" spans="1:7">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" s="27" customFormat="1" spans="1:7">
-      <c r="A2" s="29" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" s="35" customFormat="1" spans="1:7">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="6" s="27" customFormat="1" spans="1:4">
-      <c r="A6" s="36" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="6" s="35" customFormat="1" spans="1:3">
+      <c r="A6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="27" customFormat="1" ht="45" spans="1:4">
-      <c r="A7" s="37">
+    <row r="7" s="35" customFormat="1" ht="30" spans="1:3">
+      <c r="A7" s="46">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="1" spans="1:4">
-      <c r="A8" s="37">
+    <row r="8" s="35" customFormat="1" spans="1:3">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" spans="1:4">
-      <c r="A9" s="37">
+    <row r="9" s="35" customFormat="1" spans="1:3">
+      <c r="A9" s="46">
         <v>3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="1" spans="1:1">
-      <c r="A10" s="42"/>
-    </row>
-    <row r="11" s="27" customFormat="1" spans="1:2">
-      <c r="A11" s="36" t="s">
+    <row r="10" s="35" customFormat="1" spans="1:1">
+      <c r="A10" s="50"/>
+    </row>
+    <row r="11" s="35" customFormat="1" spans="1:2">
+      <c r="A11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:2">
-      <c r="A12" s="43">
+    <row r="12" s="35" customFormat="1" spans="1:2">
+      <c r="A12" s="51">
         <v>1</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" spans="1:2">
-      <c r="A13" s="43">
+    <row r="13" s="35" customFormat="1" spans="1:2">
+      <c r="A13" s="51">
         <v>2</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:2">
-      <c r="A14" s="43">
+    <row r="14" s="35" customFormat="1" spans="1:2">
+      <c r="A14" s="51">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" spans="1:2">
-      <c r="A15" s="43">
+    <row r="15" s="35" customFormat="1" spans="1:2">
+      <c r="A15" s="51">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" spans="1:2">
-      <c r="A16" s="43">
+    <row r="16" s="35" customFormat="1" spans="1:2">
+      <c r="A16" s="51">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" spans="1:2">
-      <c r="A17" s="43">
+    <row r="17" s="35" customFormat="1" spans="1:2">
+      <c r="A17" s="51">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" spans="1:2">
-      <c r="A18" s="22">
+    <row r="18" s="35" customFormat="1" spans="1:2">
+      <c r="A18" s="24">
         <v>7</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="27" customFormat="1" spans="1:7">
-      <c r="A21" s="45" t="s">
+    <row r="21" s="35" customFormat="1" spans="1:7">
+      <c r="A21" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="46">
+    <row r="22" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="54">
         <v>1</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A23" s="46">
+      <c r="F22" s="38"/>
+      <c r="G22" s="57"/>
+    </row>
+    <row r="23" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A23" s="54">
         <v>2</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" s="27" customFormat="1" ht="60" spans="1:7">
-      <c r="A24" s="50">
+      <c r="F23" s="38"/>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A24" s="58">
         <v>3</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="47" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" s="27" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A25" s="51"/>
-      <c r="B25" s="30" t="s">
+      <c r="F24" s="38"/>
+      <c r="G24" s="57"/>
+    </row>
+    <row r="25" s="35" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" s="27" customFormat="1" spans="1:7">
-      <c r="A26" s="22"/>
-      <c r="B26" s="65" t="s">
+      <c r="F25" s="74"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" s="35" customFormat="1" spans="1:7">
+      <c r="A26" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" s="27" customFormat="1" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A28" s="22">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+    </row>
+    <row r="27" s="35" customFormat="1" spans="1:7">
+      <c r="A27" s="59"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="84"/>
+    </row>
+    <row r="28" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A28" s="24">
         <v>4</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="49"/>
-    </row>
-    <row r="29" s="27" customFormat="1" ht="60" spans="1:7">
-      <c r="A29" s="50">
+      <c r="F28" s="38"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A29" s="58">
         <v>5</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="47" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A30" s="51"/>
-      <c r="B30" s="30" t="s">
+      <c r="F29" s="38"/>
+      <c r="G29" s="57"/>
+    </row>
+    <row r="30" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A30" s="59"/>
+      <c r="B30" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="49"/>
-    </row>
-    <row r="31" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A31" s="22">
+      <c r="F30" s="38"/>
+      <c r="G30" s="57"/>
+    </row>
+    <row r="31" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A31" s="24">
         <v>6</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A32" s="22">
+      <c r="F31" s="38"/>
+      <c r="G31" s="57"/>
+    </row>
+    <row r="32" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A32" s="24">
         <v>7</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="49"/>
-    </row>
-    <row r="33" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A33" s="22">
+      <c r="F32" s="38"/>
+      <c r="G32" s="57"/>
+    </row>
+    <row r="33" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A33" s="24">
         <v>8</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="49"/>
-    </row>
-    <row r="34" s="27" customFormat="1" spans="1:7">
-      <c r="A34" s="22">
+      <c r="F33" s="38"/>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" s="35" customFormat="1" spans="1:7">
+      <c r="A34" s="24">
         <v>9</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="49">
+      <c r="F34" s="38"/>
+      <c r="G34" s="57">
         <v>48</v>
       </c>
     </row>
-    <row r="35" s="27" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A35" s="22">
+    <row r="35" s="35" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A35" s="24">
         <v>10</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="49">
+      <c r="F35" s="38"/>
+      <c r="G35" s="57">
         <v>48</v>
       </c>
     </row>
-    <row r="36" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="22">
+    <row r="36" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A36" s="24">
         <v>11</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="49"/>
-    </row>
-    <row r="37" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A37" s="22">
+      <c r="F36" s="38"/>
+      <c r="G36" s="57"/>
+    </row>
+    <row r="37" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A37" s="24">
         <v>12</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="49"/>
-    </row>
-    <row r="38" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A38" s="22">
+      <c r="F37" s="38"/>
+      <c r="G37" s="57"/>
+    </row>
+    <row r="38" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A38" s="24">
         <v>13</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" s="27" customFormat="1" spans="1:6">
-      <c r="A39" s="22"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" s="27" customFormat="1" spans="1:7">
-      <c r="A40" s="53" t="s">
+      <c r="F38" s="38"/>
+      <c r="G38" s="57"/>
+    </row>
+    <row r="39" s="35" customFormat="1" spans="1:6">
+      <c r="A39" s="24"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" s="35" customFormat="1" spans="1:7">
+      <c r="A40" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="45" t="s">
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A41" s="55">
+    <row r="41" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A41" s="63">
         <v>14</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="49">
+      <c r="F41" s="65"/>
+      <c r="G41" s="57">
         <v>59</v>
       </c>
     </row>
-    <row r="42" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A42" s="58">
+    <row r="42" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A42" s="66">
         <v>15</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="49">
+      <c r="F42" s="65"/>
+      <c r="G42" s="57">
         <v>59</v>
       </c>
     </row>
-    <row r="43" s="28" customFormat="1" spans="1:6">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-    </row>
-    <row r="44" s="28" customFormat="1" spans="1:6">
-      <c r="A44" s="62" t="s">
+    <row r="43" s="36" customFormat="1" spans="1:6">
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+    </row>
+    <row r="44" s="36" customFormat="1" spans="1:6">
+      <c r="A44" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="46">
+    <row r="45" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="54">
         <v>16</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="72" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="46"/>
-      <c r="B46" s="64" t="s">
+    <row r="46" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A46" s="54"/>
+      <c r="B46" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="72" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A47" s="46"/>
-      <c r="B47" s="64" t="s">
+    <row r="47" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="54"/>
+      <c r="B47" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="72" t="s">
         <v>97</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A48" s="46">
+    <row r="48" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A48" s="54">
         <v>17</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="72" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A49" s="46"/>
-      <c r="B49" s="64" t="s">
+    <row r="49" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A49" s="54"/>
+      <c r="B49" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="72" t="s">
         <v>102</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A50" s="46"/>
-      <c r="B50" s="64" t="s">
+    <row r="50" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A50" s="54"/>
+      <c r="B50" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="72" t="s">
         <v>97</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" s="27" customFormat="1" spans="1:6">
+    <row r="51" s="35" customFormat="1" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3369,9 +3481,10 @@
       <c r="F51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A29:A30"/>
@@ -3388,502 +3501,502 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.4285714285714" style="27" customWidth="1"/>
-    <col min="2" max="2" width="92.5714285714286" style="27" customWidth="1"/>
-    <col min="3" max="3" width="70.7142857142857" style="27" customWidth="1"/>
-    <col min="4" max="4" width="48.2857142857143" style="27" customWidth="1"/>
-    <col min="5" max="5" width="38.1428571428571" style="27" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="27"/>
+    <col min="1" max="1" width="23.4285714285714" style="35" customWidth="1"/>
+    <col min="2" max="2" width="92.5714285714286" style="35" customWidth="1"/>
+    <col min="3" max="3" width="70.7142857142857" style="35" customWidth="1"/>
+    <col min="4" max="4" width="48.2857142857143" style="35" customWidth="1"/>
+    <col min="5" max="5" width="38.1428571428571" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="35" customFormat="1" spans="1:7">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" s="27" customFormat="1" spans="1:7">
-      <c r="A2" s="29" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" s="35" customFormat="1" spans="1:7">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="6" s="27" customFormat="1" spans="1:4">
-      <c r="A6" s="36" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="6" s="35" customFormat="1" spans="1:3">
+      <c r="A6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="27" customFormat="1" ht="45" spans="1:4">
-      <c r="A7" s="37">
+    <row r="7" s="35" customFormat="1" ht="30" spans="1:3">
+      <c r="A7" s="46">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="1" spans="1:4">
-      <c r="A8" s="37">
+    <row r="8" s="35" customFormat="1" spans="1:3">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" spans="1:4">
-      <c r="A9" s="42"/>
-      <c r="D9" s="41" t="s">
+    <row r="9" s="35" customFormat="1" spans="1:3">
+      <c r="A9" s="50"/>
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="1" spans="1:2">
-      <c r="A10" s="36" t="s">
+    <row r="10" s="35" customFormat="1" spans="1:2">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" spans="1:2">
-      <c r="A11" s="43">
+    <row r="11" s="35" customFormat="1" spans="1:2">
+      <c r="A11" s="51">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:2">
-      <c r="A12" s="43">
+    <row r="12" s="35" customFormat="1" spans="1:2">
+      <c r="A12" s="51">
         <v>2</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" spans="1:2">
-      <c r="A13" s="43">
+    <row r="13" s="35" customFormat="1" spans="1:2">
+      <c r="A13" s="51">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:2">
-      <c r="A14" s="43">
+    <row r="14" s="35" customFormat="1" spans="1:2">
+      <c r="A14" s="51">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" spans="1:2">
-      <c r="A15" s="43">
+    <row r="15" s="35" customFormat="1" spans="1:2">
+      <c r="A15" s="51">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" spans="1:2">
-      <c r="A16" s="43">
+    <row r="16" s="35" customFormat="1" spans="1:2">
+      <c r="A16" s="51">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" spans="1:2">
-      <c r="A17" s="22">
+    <row r="17" s="35" customFormat="1" spans="1:2">
+      <c r="A17" s="24">
         <v>7</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" spans="1:7">
-      <c r="A20" s="45" t="s">
+    <row r="20" s="35" customFormat="1" spans="1:7">
+      <c r="A20" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="46">
+    <row r="21" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="54">
         <v>1</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="46">
+      <c r="F21" s="38"/>
+      <c r="G21" s="57"/>
+    </row>
+    <row r="22" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="54">
         <v>2</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="38" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="50">
+      <c r="F22" s="38"/>
+      <c r="G22" s="57"/>
+    </row>
+    <row r="23" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A23" s="58">
         <v>3</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A24" s="51"/>
-      <c r="B24" s="30" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A24" s="59"/>
+      <c r="B24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="47" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A25" s="22">
+      <c r="F24" s="38"/>
+      <c r="G24" s="57"/>
+    </row>
+    <row r="25" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A25" s="24">
         <v>4</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="22">
+      <c r="F25" s="38"/>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" s="35" customFormat="1" spans="1:7">
+      <c r="A26" s="24">
         <v>5</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" s="27" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="22">
+      <c r="F26" s="38"/>
+      <c r="G26" s="57"/>
+    </row>
+    <row r="27" s="35" customFormat="1" ht="30" spans="1:7">
+      <c r="A27" s="24">
         <v>6</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" s="27" customFormat="1" spans="1:6">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" s="27" customFormat="1" spans="1:7">
-      <c r="A29" s="53" t="s">
+      <c r="F27" s="38"/>
+      <c r="G27" s="57"/>
+    </row>
+    <row r="28" s="35" customFormat="1" spans="1:6">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" s="35" customFormat="1" spans="1:7">
+      <c r="A29" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="29" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A30" s="55">
+    <row r="30" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A30" s="63">
         <v>13</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="57"/>
-      <c r="G30" s="30">
+      <c r="F30" s="65"/>
+      <c r="G30" s="38">
         <v>59</v>
       </c>
     </row>
-    <row r="31" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A31" s="58">
+    <row r="31" s="35" customFormat="1" ht="45" spans="1:7">
+      <c r="A31" s="66">
         <v>14</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="30">
+      <c r="F31" s="65"/>
+      <c r="G31" s="38">
         <v>59</v>
       </c>
     </row>
-    <row r="32" s="28" customFormat="1" spans="1:6">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" s="28" customFormat="1" spans="1:6">
-      <c r="A33" s="62" t="s">
+    <row r="32" s="36" customFormat="1" spans="1:6">
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+    </row>
+    <row r="33" s="36" customFormat="1" spans="1:6">
+      <c r="A33" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="46">
+    <row r="34" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="54">
         <v>15</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="72" t="s">
         <v>91</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A35" s="46"/>
-      <c r="B35" s="64" t="s">
+    <row r="35" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="54"/>
+      <c r="B35" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="72" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A36" s="46"/>
-      <c r="B36" s="64" t="s">
+    <row r="36" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="54"/>
+      <c r="B36" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="72" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A37" s="46">
+    <row r="37" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A37" s="54">
         <v>16</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="72" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A38" s="46"/>
-      <c r="B38" s="64" t="s">
+    <row r="38" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A38" s="54"/>
+      <c r="B38" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="72" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" s="27" customFormat="1" ht="30" spans="1:6">
-      <c r="A39" s="46"/>
-      <c r="B39" s="64" t="s">
+    <row r="39" s="35" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="54"/>
+      <c r="B39" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="72" t="s">
         <v>97</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" s="27" customFormat="1" spans="1:6">
+    <row r="40" s="35" customFormat="1" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3910,8 +4023,8 @@
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3963,50 +4076,52 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="3:8">
       <c r="C3" s="3"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="45" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11" t="s">
         <v>125</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
@@ -4014,13 +4129,13 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4028,7 +4143,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4040,7 +4155,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -4050,7 +4165,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4060,22 +4175,22 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="3"/>
@@ -4083,25 +4198,25 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>1</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
         <v>131</v>
       </c>
       <c r="E14" s="3"/>
@@ -4109,14 +4224,14 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="17">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
         <v>133</v>
       </c>
       <c r="E15" s="3"/>
@@ -4124,14 +4239,14 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="17">
+      <c r="A16" s="18">
         <v>3</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="21" t="s">
         <v>135</v>
       </c>
       <c r="E16" s="3"/>
@@ -4139,14 +4254,14 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="17">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E17" s="3"/>
@@ -4154,25 +4269,25 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="17">
+      <c r="A19" s="18">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="21" t="s">
         <v>140</v>
       </c>
       <c r="E19" s="3"/>
@@ -4180,14 +4295,14 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
         <v>142</v>
       </c>
       <c r="E20" s="3"/>
@@ -4195,14 +4310,14 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="17">
+      <c r="A21" s="18">
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>144</v>
       </c>
       <c r="E21" s="3"/>
@@ -4210,14 +4325,14 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="17">
+      <c r="A22" s="18">
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="3"/>
@@ -4225,25 +4340,25 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A24" s="17">
+      <c r="A24" s="18">
         <v>10</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E24" s="3"/>
@@ -4251,25 +4366,25 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A26" s="17">
+      <c r="A26" s="18">
         <v>11</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>151</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="23" t="s">
         <v>152</v>
       </c>
       <c r="E26" s="3"/>
@@ -4277,14 +4392,14 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:7">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E27" s="3"/>
@@ -4292,14 +4407,14 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="17">
+      <c r="A28" s="18">
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E28" s="3"/>
@@ -4307,51 +4422,51 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:7">
-      <c r="A29" s="17">
+      <c r="A29" s="18">
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="17">
+      <c r="A30" s="18">
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A32" s="22">
+      <c r="A32" s="24">
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="23" t="s">
         <v>161</v>
       </c>
       <c r="E32" s="3"/>
@@ -4359,14 +4474,14 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A33" s="22">
+      <c r="A33" s="24">
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="23" t="s">
         <v>163</v>
       </c>
       <c r="E33" s="3"/>
@@ -4374,14 +4489,14 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A34" s="22">
+      <c r="A34" s="24">
         <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="23" t="s">
         <v>165</v>
       </c>
       <c r="E34" s="3"/>
@@ -4389,14 +4504,14 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:7">
-      <c r="A35" s="22">
+      <c r="A35" s="24">
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E35" s="3"/>
@@ -4404,14 +4519,14 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A36" s="22">
+      <c r="A36" s="24">
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E36" s="3"/>
@@ -4419,14 +4534,14 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:7">
-      <c r="A37" s="22">
+      <c r="A37" s="24">
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E37" s="3"/>
@@ -4434,14 +4549,14 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:7">
-      <c r="A38" s="22">
+      <c r="A38" s="24">
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E38" s="3"/>
@@ -4449,14 +4564,14 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:7">
-      <c r="A39" s="22">
+      <c r="A39" s="24">
         <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E39" s="3"/>
@@ -4464,14 +4579,14 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:7">
-      <c r="A40" s="22">
+      <c r="A40" s="24">
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="3"/>
@@ -4479,14 +4594,14 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A41" s="22">
+      <c r="A41" s="24">
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E41" s="3"/>
@@ -4494,14 +4609,14 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:7">
-      <c r="A42" s="22">
+      <c r="A42" s="24">
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E42" s="3"/>
@@ -4509,14 +4624,14 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:7">
-      <c r="A43" s="22">
+      <c r="A43" s="24">
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E43" s="3"/>
@@ -4524,14 +4639,14 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:7">
-      <c r="A44" s="22">
+      <c r="A44" s="24">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E44" s="3"/>
@@ -4539,14 +4654,14 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:7">
-      <c r="A45" s="22">
+      <c r="A45" s="24">
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>187</v>
       </c>
       <c r="E45" s="3"/>
@@ -4554,14 +4669,14 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:7">
-      <c r="A46" s="22">
+      <c r="A46" s="24">
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E46" s="3"/>
@@ -4569,27 +4684,27 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:7">
-      <c r="A47" s="22">
+      <c r="A47" s="24">
         <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:7">
-      <c r="A48" s="22">
+      <c r="A48" s="24">
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E48" s="3"/>
@@ -4597,27 +4712,27 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A49" s="22">
+      <c r="A49" s="24">
         <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:7">
-      <c r="A50" s="22">
+      <c r="A50" s="24">
         <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>195</v>
       </c>
       <c r="E50" s="3"/>
@@ -4625,86 +4740,86 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:7">
-      <c r="A51" s="22">
+      <c r="A51" s="24">
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:7">
-      <c r="A52" s="22">
+      <c r="A52" s="24">
         <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:7">
-      <c r="A53" s="22">
+      <c r="A53" s="24">
         <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:7">
-      <c r="A54" s="22">
+      <c r="A54" s="24">
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:7">
-      <c r="A55" s="22"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:7">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:7">
-      <c r="A57" s="22">
+      <c r="A57" s="24">
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E57" s="3"/>
@@ -4712,34 +4827,34 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:7">
-      <c r="A58" s="22"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:7">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:7">
-      <c r="A60" s="22">
+      <c r="A60" s="24">
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>205</v>
       </c>
       <c r="E60" s="3"/>
@@ -4747,14 +4862,14 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:7">
-      <c r="A61" s="22">
+      <c r="A61" s="24">
         <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>207</v>
       </c>
       <c r="E61" s="3"/>
@@ -4762,14 +4877,14 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:7">
-      <c r="A62" s="22">
+      <c r="A62" s="24">
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E62" s="3"/>
@@ -4777,14 +4892,14 @@
       <c r="G62" s="3"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:7">
-      <c r="A63" s="22">
+      <c r="A63" s="24">
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -4794,14 +4909,14 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:7">
-      <c r="A64" s="22">
+      <c r="A64" s="24">
         <v>44</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>214</v>
       </c>
       <c r="E64" s="3"/>
@@ -4809,14 +4924,14 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:7">
-      <c r="A65" s="22">
+      <c r="A65" s="24">
         <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E65" s="3"/>
@@ -4824,14 +4939,14 @@
       <c r="G65" s="3"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A66" s="22">
+      <c r="A66" s="24">
         <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E66" s="3"/>
@@ -4839,14 +4954,14 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:7">
-      <c r="A67" s="22">
+      <c r="A67" s="24">
         <v>47</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E67" s="3"/>
@@ -4854,14 +4969,14 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="165" spans="1:7">
-      <c r="A68" s="22">
+      <c r="A68" s="24">
         <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="23" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="3"/>
@@ -4869,14 +4984,14 @@
       <c r="G68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:7">
-      <c r="A69" s="22">
+      <c r="A69" s="24">
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>224</v>
       </c>
       <c r="E69" s="3"/>
@@ -4884,14 +4999,14 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:7">
-      <c r="A70" s="22">
+      <c r="A70" s="24">
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E70" s="3"/>
@@ -4899,14 +5014,14 @@
       <c r="G70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:7">
-      <c r="A71" s="22">
+      <c r="A71" s="24">
         <v>51</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>228</v>
       </c>
       <c r="E71" s="3"/>
@@ -4914,74 +5029,74 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:7">
-      <c r="A72" s="22">
+      <c r="A72" s="24">
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>230</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:7">
-      <c r="A73" s="22">
+      <c r="A73" s="24">
         <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>232</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:7">
-      <c r="A74" s="22">
+      <c r="A74" s="24">
         <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>234</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:7">
-      <c r="A75" s="22">
+      <c r="A75" s="24">
         <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>236</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:7">
-      <c r="A76" s="22">
+      <c r="A76" s="24">
         <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>238</v>
       </c>
       <c r="E76" s="3"/>
@@ -4989,14 +5104,14 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:7">
-      <c r="A77" s="22">
+      <c r="A77" s="24">
         <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>240</v>
       </c>
       <c r="E77" s="3"/>
@@ -5004,18 +5119,18 @@
       <c r="G77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:7">
-      <c r="A78" s="22"/>
-      <c r="B78" s="25" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:7">
-      <c r="A79" s="22">
+      <c r="A79" s="24">
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -5025,12 +5140,12 @@
       <c r="D79" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E79" s="26"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:7">
-      <c r="A80" s="22">
+      <c r="A80" s="24">
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -5040,12 +5155,12 @@
       <c r="D80" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E80" s="26"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:4">
-      <c r="A81" s="22">
+      <c r="A81" s="24">
         <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -5057,9 +5172,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B78:F78"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
